--- a/performance/performance.xlsx
+++ b/performance/performance.xlsx
@@ -5,77 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alykamel/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alykamel/clouddb/milestone5additional/performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AB4DC5-9891-0246-87A1-22B9BBE96F26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A0B292-1DA6-8C4D-A230-67F046AEEB91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D12FAD9B-5EB7-8346-9D3F-CA974A029059}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{D12FAD9B-5EB7-8346-9D3F-CA974A029059}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$6:$A$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$6:$A$8</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$6:$C$8</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$D$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$D$6:$D$8</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$6:$A$11</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$6:$A$8</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$6:$B$11</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$4</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$6:$C$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$D$4</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$D$6:$D$11</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$6:$B$8</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$C$4</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$C$6:$C$8</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$D$4</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$D$6:$D$8</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$A$6:$A$11</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$A$6:$A$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$6:$B$11</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$B$6:$B$11</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$C$4</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$C$6:$C$11</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$D$4</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$D$6:$D$11</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$A$6:$A$11</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$A$6:$A$8</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$B$6:$B$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$4</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$C$4</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$C$6:$C$11</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$D$4</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$D$6:$D$11</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$A$6:$A$11</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$A$6:$A$8</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$B$6:$B$11</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$C$4</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$C$6:$C$11</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$6:$C$11</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$D$4</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$D$6:$D$11</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$A$6:$A$11</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$A$6:$A$8</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$B$6:$B$11</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$C$4</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$C$6:$C$11</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$D$4</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$D$6:$D$11</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$6:$D$11</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$6:$B$8</definedName>
     <definedName name="aaaa">Sheet1!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -94,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="19">
   <si>
     <t>servers</t>
   </si>
@@ -148,6 +88,9 @@
   </si>
   <si>
     <t>RESULTS</t>
+  </si>
+  <si>
+    <t>f(x) = 0.3x</t>
   </si>
 </sst>
 </file>
@@ -1861,10 +1804,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1872,14 +1812,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>1</a:t>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>client count = 1</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> client, 320 operations, no chat</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1898,10 +1837,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1935,7 +1871,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1946,9 +1882,9 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
@@ -1958,10 +1894,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$72:$A$80</c:f>
+              <c:f>Sheet1!$A$72:$A$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1974,9 +1910,6 @@
                 <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1987,6 +1920,9 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -1994,36 +1930,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$72:$B$80</c:f>
+              <c:f>Sheet1!$B$72:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.5756640126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.0867297808</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.5793951434</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.9841557475999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.3899355962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.5441974674000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.0188700514</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2755559065999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,7 +2001,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
@@ -2075,10 +2011,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$72:$A$80</c:f>
+              <c:f>Sheet1!$A$72:$A$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2091,9 +2027,6 @@
                 <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
@@ -2104,6 +2037,9 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -2111,36 +2047,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$72:$C$80</c:f>
+              <c:f>Sheet1!$C$72:$C$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.30769366740000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.69244371859999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.32549412040000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.63990043720000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.1694640232</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.4788916329999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.9682889578</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2323284440000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2182,7 +2118,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -2192,10 +2128,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$72:$A$80</c:f>
+              <c:f>Sheet1!$A$72:$A$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2208,9 +2144,6 @@
                 <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
@@ -2221,6 +2154,9 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -2228,36 +2164,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$72:$D$80</c:f>
+              <c:f>Sheet1!$D$72:$D$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.23081160679999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.55183784740000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.93108106700000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.0645283454000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.4694690036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.5183983780000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.2437008002000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0684172431999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2666,10 +2602,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2677,10 +2610,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>2 clients, 320 operations, no chat</a:t>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>client count = 2</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2699,10 +2640,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2724,7 +2662,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$90</c:f>
+              <c:f>Sheet1!$B$91</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2736,7 +2674,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2747,9 +2685,9 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
@@ -2759,10 +2697,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$91:$A$99</c:f>
+              <c:f>Sheet1!$A$92:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2775,9 +2713,6 @@
                 <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
@@ -2788,6 +2723,9 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -2795,36 +2733,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$91:$B$99</c:f>
+              <c:f>Sheet1!$B$92:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.64988172899999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.9784383952000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.6797268287999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.0092521913999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.8525547789999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.3563031232</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.6081892870666668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6157099590000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2841,7 +2779,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$90</c:f>
+              <c:f>Sheet1!$C$91</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2866,7 +2804,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
@@ -2876,10 +2814,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$91:$A$99</c:f>
+              <c:f>Sheet1!$A$92:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2892,9 +2830,6 @@
                 <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
@@ -2905,6 +2840,9 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -2912,36 +2850,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$91:$C$99</c:f>
+              <c:f>Sheet1!$C$92:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.28742258659999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.2800733310000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.45494340500000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.1810248658</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.117668455</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.8533341586000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.8401202734666668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5493582068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2958,7 +2896,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$90</c:f>
+              <c:f>Sheet1!$D$91</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2983,7 +2921,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -2993,10 +2931,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$91:$A$99</c:f>
+              <c:f>Sheet1!$A$92:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3009,9 +2947,6 @@
                 <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3022,6 +2957,9 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -3029,36 +2967,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$91:$D$99</c:f>
+              <c:f>Sheet1!$D$92:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.22661201340000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.0626209508000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.0085710481999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.7311172243999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.4087304969999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.7659609721999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.8083913914666661</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2504827051999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3478,10 +3416,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>5 clients, 320 operations, no chat</a:t>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>server</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> count = 3, client count = 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3525,7 +3479,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$106</c:f>
+              <c:f>Sheet1!$B$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3537,7 +3491,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3548,9 +3502,9 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
@@ -3560,7 +3514,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$107:$A$115</c:f>
+              <c:f>Sheet1!$A$124:$A$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3573,59 +3527,47 @@
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$107:$B$115</c:f>
+              <c:f>Sheet1!$B$124:$B$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.6647329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.6951473575999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.8716574584000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.0556984925999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.6014580926000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7.8274331875999987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>13.177717523800002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3633,7 +3575,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-89FF-9547-A060-B19515A9B711}"/>
+              <c16:uniqueId val="{00000000-9B14-7640-AAE2-C8F447A5D8DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3642,7 +3584,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$106</c:f>
+              <c:f>Sheet1!$C$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3667,7 +3609,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
@@ -3677,7 +3619,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$107:$A$115</c:f>
+              <c:f>Sheet1!$A$124:$A$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3690,59 +3632,47 @@
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$107:$C$115</c:f>
+              <c:f>Sheet1!$C$124:$C$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.3594831000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.5725989158</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.2468747402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.7469681248</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.9019044502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.5103663756000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8.4508836281999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3750,7 +3680,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-89FF-9547-A060-B19515A9B711}"/>
+              <c16:uniqueId val="{00000001-9B14-7640-AAE2-C8F447A5D8DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3759,7 +3689,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$106</c:f>
+              <c:f>Sheet1!$D$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3784,7 +3714,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350" cmpd="sng">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -3794,7 +3724,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$107:$A$115</c:f>
+              <c:f>Sheet1!$A$124:$A$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3807,860 +3737,47 @@
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$107:$D$115</c:f>
+              <c:f>Sheet1!$D$124:$D$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.52093719999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.46140023680000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.85893367659999986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.4875797951999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.1122961656000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.2909006310000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-89FF-9547-A060-B19515A9B711}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="9665648"/>
-        <c:axId val="9666032"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="9665648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="30"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>server count</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd type="none"/>
-            <a:tailEnd type="stealth" w="med" len="med"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="9666032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
-        <c:minorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="9666032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (in s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="9665648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.25"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="0"/>
-    <c:dispBlanksAs val="span"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>5 servers, 5 clients, 320 operations</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$122</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>put</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$123:$A$131</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$123:$B$131</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9B14-7640-AAE2-C8F447A5D8DE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$122</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>get</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$123:$A$131</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$123:$C$131</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9B14-7640-AAE2-C8F447A5D8DE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$122</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>delete</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$123:$A$131</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$123:$D$131</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>12.555177542600001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4958,8 +4075,8 @@
         <c:crossAx val="9665648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.25"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4987,6 +4104,2652 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>server</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> count = 3</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> client count = 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78725308848402986"/>
+          <c:y val="9.2504822582492083E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8262378714903769E-2"/>
+          <c:y val="0.10604718304944409"/>
+          <c:w val="0.64520599026093062"/>
+          <c:h val="0.79842909499420345"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>put</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$124:$A$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$124:$B$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.6647329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6951473575999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8716574584000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0556984925999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6014580926000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8274331875999987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.177717523800002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D58-0846-A3CB-B4680B5E01C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$124:$A$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$124:$C$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.3594831000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5725989158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2468747402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7469681248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9019044502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5103663756000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4508836281999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D58-0846-A3CB-B4680B5E01C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$124:$A$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$124:$D$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.52093719999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46140023680000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85893367659999986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4875797951999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1122961656000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2909006310000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.555177542600001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4D58-0846-A3CB-B4680B5E01C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x) = 0.3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$124:$A$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$124:$E$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4D58-0846-A3CB-B4680B5E01C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="9665648"/>
+        <c:axId val="9666032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="9665648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>chat messages per operation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="stealth" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9666032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="9666032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> (in s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3093069112258769E-2"/>
+              <c:y val="0.42009267082647578"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9665648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80263386385448288"/>
+          <c:y val="0.36980094439276123"/>
+          <c:w val="0.1489529956223154"/>
+          <c:h val="0.31696580116527956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="2000" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> client count = 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78852068769998251"/>
+          <c:y val="3.7090422715559603E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8262378714903769E-2"/>
+          <c:y val="0.10604718304944409"/>
+          <c:w val="0.64520599026093062"/>
+          <c:h val="0.79842909499420345"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>put</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$72:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$72:$B$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5756640126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0867297808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5793951434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9841557475999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3899355962</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5441974674000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0188700514</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2755559065999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1AF-9549-A9B4-E09D63D55825}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$72:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$72:$C$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30769366740000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69244371859999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32549412040000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63990043720000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1694640232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4788916329999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9682889578</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2323284440000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1AF-9549-A9B4-E09D63D55825}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$72:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$72:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23081160679999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55183784740000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93108106700000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0645283454000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4694690036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5183983780000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2437008002000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0684172431999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B1AF-9549-A9B4-E09D63D55825}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="9665648"/>
+        <c:axId val="9666032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="9665648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>server</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="stealth" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9666032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="9666032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> (in s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3093069112258769E-2"/>
+              <c:y val="0.42009267082647578"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9665648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80263386385448288"/>
+          <c:y val="0.36980094439276123"/>
+          <c:w val="0.1489529956223154"/>
+          <c:h val="0.31696580116527956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="2000" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> client count = 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78852068769998251"/>
+          <c:y val="3.7090422715559603E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8262378714903769E-2"/>
+          <c:y val="0.10604718304944409"/>
+          <c:w val="0.64520599026093062"/>
+          <c:h val="0.79842909499420345"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>put</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$92:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$92:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64988172899999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9784383952000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6797268287999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0092521913999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8525547789999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3563031232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6081892870666668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6157099590000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC8F-664E-8DEB-4E9B89386312}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$92:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$92:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28742258659999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2800733310000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45494340500000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1810248658</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.117668455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8533341586000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8401202734666668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5493582068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC8F-664E-8DEB-4E9B89386312}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$92:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$92:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22661201340000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0626209508000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0085710481999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7311172243999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4087304969999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7659609721999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8083913914666661</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2504827051999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AC8F-664E-8DEB-4E9B89386312}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="9665648"/>
+        <c:axId val="9666032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="9665648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>server</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="stealth" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9666032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="9666032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> (in s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3093069112258769E-2"/>
+              <c:y val="0.42009267082647578"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9665648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80263386385448288"/>
+          <c:y val="0.36980094439276123"/>
+          <c:w val="0.1489529956223154"/>
+          <c:h val="0.31696580116527956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5286,6 +7049,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7867,6 +9710,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8460,16 +11335,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>307009</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>155344</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>580363</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>87760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>408032</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>75968</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>336071</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>25044</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8498,16 +11373,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>16267</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>183974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>355023</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>22223</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561761</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>159946</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8536,23 +11411,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>118534</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>562901</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219557</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>174624</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>212665</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190619</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13">
+        <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFC48B1-E35C-9C43-ADA0-FC5A71D22AAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC410334-3CFC-6A43-85F8-EB8B271BF655}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8574,23 +11449,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>501567</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>151823</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>22224</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>597157</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>77870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC410334-3CFC-6A43-85F8-EB8B271BF655}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02234E6E-BCB7-F64B-9152-7896B94DB1BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8605,6 +11480,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>156028</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>147562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>251618</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>110716</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80A95F1-BB66-4D45-A16E-A1F9A21792C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>120990</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>13954</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D36CCC-645E-2E40-964C-B89EC0688B27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8910,10 +11861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2864F3-35EF-1A41-B4B7-FA37B851884E}">
-  <dimension ref="A1:AM131"/>
+  <dimension ref="A1:AM141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="M125" sqref="M125"/>
+    <sheetView tabSelected="1" topLeftCell="G99" zoomScale="50" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="Z105" sqref="Z105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9403,32 +12354,92 @@
       </c>
     </row>
     <row r="27" spans="1:39">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="P27" s="6">
+      <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="U27">
-        <v>5</v>
-      </c>
-      <c r="Z27">
-        <v>10</v>
-      </c>
-      <c r="AE27">
-        <v>15</v>
-      </c>
-      <c r="AJ27">
-        <v>30</v>
+      <c r="B27">
+        <v>0.5756640126</v>
+      </c>
+      <c r="C27">
+        <v>0.30769366740000004</v>
+      </c>
+      <c r="D27">
+        <v>0.23081160679999999</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>1.0867297808</v>
+      </c>
+      <c r="H27">
+        <v>0.69244371859999998</v>
+      </c>
+      <c r="I27">
+        <v>0.55183784740000008</v>
+      </c>
+      <c r="K27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>1.5793951434</v>
+      </c>
+      <c r="M27">
+        <v>0.32549412040000003</v>
+      </c>
+      <c r="N27">
+        <v>0.93108106700000004</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" t="s">
+        <v>4</v>
+      </c>
+      <c r="V27">
+        <v>1.9841557475999998</v>
+      </c>
+      <c r="W27">
+        <v>0.63990043720000001</v>
+      </c>
+      <c r="X27">
+        <v>1.0645283454000001</v>
+      </c>
+      <c r="AA27">
+        <v>2.3899355962</v>
+      </c>
+      <c r="AB27">
+        <v>1.1694640232</v>
+      </c>
+      <c r="AC27">
+        <v>1.4694690036</v>
+      </c>
+      <c r="AF27">
+        <v>2.5441974674000001</v>
+      </c>
+      <c r="AG27">
+        <v>1.4788916329999999</v>
+      </c>
+      <c r="AH27">
+        <v>1.5183983780000001</v>
+      </c>
+      <c r="AK27">
+        <v>3.2755559065999997</v>
+      </c>
+      <c r="AL27">
+        <v>2.2323284440000002</v>
+      </c>
+      <c r="AM27">
+        <v>2.0684172431999999</v>
       </c>
     </row>
     <row r="28" spans="1:39">
@@ -9493,47 +12504,47 @@
       <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" t="e">
+      <c r="B30">
         <f>AVERAGE(B27:B29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C30" t="e">
+        <v>0.5756640126</v>
+      </c>
+      <c r="C30">
         <f>AVERAGE(C27:C29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D30" t="e">
+        <v>0.30769366740000004</v>
+      </c>
+      <c r="D30">
         <f>AVERAGE(D27:D29)</f>
-        <v>#DIV/0!</v>
+        <v>0.23081160679999999</v>
       </c>
       <c r="F30" t="s">
         <v>4</v>
       </c>
-      <c r="G30" t="e">
+      <c r="G30">
         <f>AVERAGE(G27:G29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" t="e">
+        <v>1.0867297808</v>
+      </c>
+      <c r="H30">
         <f>AVERAGE(H27:H29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" t="e">
+        <v>0.69244371859999998</v>
+      </c>
+      <c r="I30">
         <f>AVERAGE(I27:I29)</f>
-        <v>#DIV/0!</v>
+        <v>0.55183784740000008</v>
       </c>
       <c r="K30" t="s">
         <v>4</v>
       </c>
-      <c r="L30" t="e">
+      <c r="L30">
         <f>AVERAGE(L27:L29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" t="e">
+        <v>1.5793951434</v>
+      </c>
+      <c r="M30">
         <f>AVERAGE(M27:M29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" t="e">
+        <v>0.32549412040000003</v>
+      </c>
+      <c r="N30">
         <f>AVERAGE(N27:N29)</f>
-        <v>#DIV/0!</v>
+        <v>0.93108106700000004</v>
       </c>
       <c r="P30" t="s">
         <v>4</v>
@@ -9553,53 +12564,53 @@
       <c r="U30" t="s">
         <v>4</v>
       </c>
-      <c r="V30" t="e">
+      <c r="V30">
         <f>AVERAGE(V27:V29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W30" t="e">
+        <v>1.9841557475999998</v>
+      </c>
+      <c r="W30">
         <f>AVERAGE(W27:W29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X30" t="e">
+        <v>0.63990043720000001</v>
+      </c>
+      <c r="X30">
         <f>AVERAGE(X27:X29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA30" t="e">
+        <v>1.0645283454000001</v>
+      </c>
+      <c r="AA30">
         <f>AVERAGE(AA27:AA29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB30" t="e">
+        <v>2.3899355962</v>
+      </c>
+      <c r="AB30">
         <f>AVERAGE(AB27:AB29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC30" t="e">
+        <v>1.1694640232</v>
+      </c>
+      <c r="AC30">
         <f>AVERAGE(AC27:AC29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF30" t="e">
+        <v>1.4694690036</v>
+      </c>
+      <c r="AF30">
         <f>AVERAGE(AF27:AF29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG30" t="e">
+        <v>2.5441974674000001</v>
+      </c>
+      <c r="AG30">
         <f>AVERAGE(AG27:AG29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH30" t="e">
+        <v>1.4788916329999999</v>
+      </c>
+      <c r="AH30">
         <f>AVERAGE(AH27:AH29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK30" t="e">
+        <v>1.5183983780000001</v>
+      </c>
+      <c r="AK30">
         <f>AVERAGE(AK27:AK29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL30" t="e">
+        <v>3.2755559065999997</v>
+      </c>
+      <c r="AL30">
         <f>AVERAGE(AL27:AL29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM30" t="e">
+        <v>2.2323284440000002</v>
+      </c>
+      <c r="AM30">
         <f>AVERAGE(AM27:AM29)</f>
-        <v>#DIV/0!</v>
+        <v>2.0684172431999999</v>
       </c>
     </row>
     <row r="34" spans="1:39">
@@ -9740,32 +12751,92 @@
       </c>
     </row>
     <row r="37" spans="1:39">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="P37" s="6">
+      <c r="A37" t="s">
         <v>4</v>
       </c>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="U37">
-        <v>5</v>
-      </c>
-      <c r="Z37">
-        <v>10</v>
-      </c>
-      <c r="AE37">
-        <v>15</v>
-      </c>
-      <c r="AJ37">
-        <v>30</v>
+      <c r="B37">
+        <v>0.64988172899999996</v>
+      </c>
+      <c r="C37">
+        <v>0.28742258659999997</v>
+      </c>
+      <c r="D37">
+        <v>0.22661201340000003</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>1.9784383952000002</v>
+      </c>
+      <c r="H37">
+        <v>1.2800733310000001</v>
+      </c>
+      <c r="I37">
+        <v>1.0626209508000002</v>
+      </c>
+      <c r="K37" t="s">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>1.6797268287999998</v>
+      </c>
+      <c r="M37">
+        <v>0.45494340500000002</v>
+      </c>
+      <c r="N37">
+        <v>1.0085710481999999</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R37" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S37" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U37" t="s">
+        <v>4</v>
+      </c>
+      <c r="V37">
+        <v>3.0092521913999999</v>
+      </c>
+      <c r="W37">
+        <v>1.1810248658</v>
+      </c>
+      <c r="X37">
+        <v>1.7311172243999997</v>
+      </c>
+      <c r="AA37">
+        <v>3.8525547789999997</v>
+      </c>
+      <c r="AB37">
+        <v>2.117668455</v>
+      </c>
+      <c r="AC37">
+        <v>2.4087304969999996</v>
+      </c>
+      <c r="AF37">
+        <v>4.3563031232</v>
+      </c>
+      <c r="AG37">
+        <v>2.8533341586000001</v>
+      </c>
+      <c r="AH37">
+        <v>2.7659609721999998</v>
+      </c>
+      <c r="AK37">
+        <v>5.6157099590000001</v>
+      </c>
+      <c r="AL37">
+        <v>3.5493582068</v>
+      </c>
+      <c r="AM37">
+        <v>3.2504827051999996</v>
       </c>
     </row>
     <row r="38" spans="1:39">
@@ -9830,47 +12901,47 @@
       <c r="A40" t="s">
         <v>4</v>
       </c>
-      <c r="B40" t="e">
+      <c r="B40">
         <f>AVERAGE(B37:B39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C40" t="e">
+        <v>0.64988172899999996</v>
+      </c>
+      <c r="C40">
         <f>AVERAGE(C37:C39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" t="e">
+        <v>0.28742258659999997</v>
+      </c>
+      <c r="D40">
         <f>AVERAGE(D37:D39)</f>
-        <v>#DIV/0!</v>
+        <v>0.22661201340000003</v>
       </c>
       <c r="F40" t="s">
         <v>4</v>
       </c>
-      <c r="G40" t="e">
+      <c r="G40">
         <f>AVERAGE(G37:G39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" t="e">
+        <v>1.9784383952000002</v>
+      </c>
+      <c r="H40">
         <f>AVERAGE(H37:H39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" t="e">
+        <v>1.2800733310000001</v>
+      </c>
+      <c r="I40">
         <f>AVERAGE(I37:I39)</f>
-        <v>#DIV/0!</v>
+        <v>1.0626209508000002</v>
       </c>
       <c r="K40" t="s">
         <v>4</v>
       </c>
-      <c r="L40" t="e">
+      <c r="L40">
         <f>AVERAGE(L37:L39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" t="e">
+        <v>1.6797268287999998</v>
+      </c>
+      <c r="M40">
         <f>AVERAGE(M37:M39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N40" t="e">
+        <v>0.45494340500000002</v>
+      </c>
+      <c r="N40">
         <f>AVERAGE(N37:N39)</f>
-        <v>#DIV/0!</v>
+        <v>1.0085710481999999</v>
       </c>
       <c r="P40" t="s">
         <v>4</v>
@@ -9890,53 +12961,53 @@
       <c r="U40" t="s">
         <v>4</v>
       </c>
-      <c r="V40" t="e">
+      <c r="V40">
         <f>AVERAGE(V37:V39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W40" t="e">
+        <v>3.0092521913999999</v>
+      </c>
+      <c r="W40">
         <f>AVERAGE(W37:W39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X40" t="e">
+        <v>1.1810248658</v>
+      </c>
+      <c r="X40">
         <f>AVERAGE(X37:X39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA40" t="e">
+        <v>1.7311172243999997</v>
+      </c>
+      <c r="AA40">
         <f>AVERAGE(AA37:AA39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB40" t="e">
+        <v>3.8525547789999997</v>
+      </c>
+      <c r="AB40">
         <f>AVERAGE(AB37:AB39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC40" t="e">
+        <v>2.117668455</v>
+      </c>
+      <c r="AC40">
         <f>AVERAGE(AC37:AC39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF40" t="e">
+        <v>2.4087304969999996</v>
+      </c>
+      <c r="AF40">
         <f>AVERAGE(AF37:AF39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG40" t="e">
+        <v>4.3563031232</v>
+      </c>
+      <c r="AG40">
         <f>AVERAGE(AG37:AG39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH40" t="e">
+        <v>2.8533341586000001</v>
+      </c>
+      <c r="AH40">
         <f>AVERAGE(AH37:AH39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK40" t="e">
+        <v>2.7659609721999998</v>
+      </c>
+      <c r="AK40">
         <f>AVERAGE(AK37:AK39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL40" t="e">
+        <v>5.6157099590000001</v>
+      </c>
+      <c r="AL40">
         <f>AVERAGE(AL37:AL39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM40" t="e">
+        <v>3.5493582068</v>
+      </c>
+      <c r="AM40">
         <f>AVERAGE(AM37:AM39)</f>
-        <v>#DIV/0!</v>
+        <v>3.2504827051999996</v>
       </c>
     </row>
     <row r="45" spans="1:39">
@@ -10399,29 +13470,89 @@
       </c>
     </row>
     <row r="57" spans="1:39">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="K57">
-        <v>3</v>
-      </c>
-      <c r="P57">
-        <v>5</v>
-      </c>
-      <c r="U57">
-        <v>10</v>
-      </c>
-      <c r="Z57">
-        <v>15</v>
-      </c>
-      <c r="AE57">
-        <v>30</v>
-      </c>
-      <c r="AJ57">
-        <v>50</v>
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>1.6951473575999998</v>
+      </c>
+      <c r="C57">
+        <v>1.5725989158</v>
+      </c>
+      <c r="D57">
+        <v>0.46140023680000003</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>1.8716574584000001</v>
+      </c>
+      <c r="H57">
+        <v>1.2468747402</v>
+      </c>
+      <c r="I57">
+        <v>0.85893367659999986</v>
+      </c>
+      <c r="K57" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M57" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N57" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P57" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57">
+        <v>3.0556984925999999</v>
+      </c>
+      <c r="R57">
+        <v>1.7469681248</v>
+      </c>
+      <c r="S57">
+        <v>2.4875797951999998</v>
+      </c>
+      <c r="V57" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W57" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X57" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA57">
+        <v>6.6014580926000006</v>
+      </c>
+      <c r="AB57">
+        <v>3.9019044502</v>
+      </c>
+      <c r="AC57">
+        <v>6.1122961656000001</v>
+      </c>
+      <c r="AF57">
+        <v>7.8274331875999987</v>
+      </c>
+      <c r="AG57">
+        <v>4.5103663756000003</v>
+      </c>
+      <c r="AH57">
+        <v>6.2909006310000004</v>
+      </c>
+      <c r="AK57">
+        <v>13.177717523800002</v>
+      </c>
+      <c r="AL57">
+        <v>8.4508836281999997</v>
+      </c>
+      <c r="AM57">
+        <v>12.555177542600001</v>
       </c>
     </row>
     <row r="58" spans="1:39">
@@ -10480,32 +13611,32 @@
       <c r="A60" t="s">
         <v>4</v>
       </c>
-      <c r="B60" t="e">
+      <c r="B60">
         <f>AVERAGE(B57:B59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C60" t="e">
+        <v>1.6951473575999998</v>
+      </c>
+      <c r="C60">
         <f>AVERAGE(C57:C59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" t="e">
+        <v>1.5725989158</v>
+      </c>
+      <c r="D60">
         <f>AVERAGE(D57:D59)</f>
-        <v>#DIV/0!</v>
+        <v>0.46140023680000003</v>
       </c>
       <c r="F60" t="s">
         <v>4</v>
       </c>
-      <c r="G60" t="e">
+      <c r="G60">
         <f>AVERAGE(G57:G59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H60" t="e">
+        <v>1.8716574584000001</v>
+      </c>
+      <c r="H60">
         <f>AVERAGE(H57:H59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I60" t="e">
+        <v>1.2468747402</v>
+      </c>
+      <c r="I60">
         <f>AVERAGE(I57:I59)</f>
-        <v>#DIV/0!</v>
+        <v>0.85893367659999986</v>
       </c>
       <c r="K60" t="s">
         <v>4</v>
@@ -10525,17 +13656,17 @@
       <c r="P60" t="s">
         <v>4</v>
       </c>
-      <c r="Q60" t="e">
+      <c r="Q60">
         <f>AVERAGE(Q57:Q59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R60" t="e">
+        <v>3.0556984925999999</v>
+      </c>
+      <c r="R60">
         <f>AVERAGE(R57:R59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S60" t="e">
+        <v>1.7469681248</v>
+      </c>
+      <c r="S60">
         <f>AVERAGE(S57:S59)</f>
-        <v>#DIV/0!</v>
+        <v>2.4875797951999998</v>
       </c>
       <c r="V60" t="e">
         <f>AVERAGE(V57:V59)</f>
@@ -10549,41 +13680,41 @@
         <f>AVERAGE(X57:X59)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA60" t="e">
+      <c r="AA60">
         <f>AVERAGE(AA57:AA59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB60" t="e">
+        <v>6.6014580926000006</v>
+      </c>
+      <c r="AB60">
         <f>AVERAGE(AB57:AB59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC60" t="e">
+        <v>3.9019044502</v>
+      </c>
+      <c r="AC60">
         <f>AVERAGE(AC57:AC59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF60" t="e">
+        <v>6.1122961656000001</v>
+      </c>
+      <c r="AF60">
         <f>AVERAGE(AF57:AF59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG60" t="e">
+        <v>7.8274331875999987</v>
+      </c>
+      <c r="AG60">
         <f>AVERAGE(AG57:AG59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH60" t="e">
+        <v>4.5103663756000003</v>
+      </c>
+      <c r="AH60">
         <f>AVERAGE(AH57:AH59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK60" t="e">
+        <v>6.2909006310000004</v>
+      </c>
+      <c r="AK60">
         <f>AVERAGE(AK57:AK59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL60" t="e">
+        <v>13.177717523800002</v>
+      </c>
+      <c r="AL60">
         <f>AVERAGE(AL57:AL59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM60" t="e">
+        <v>8.4508836281999997</v>
+      </c>
+      <c r="AM60">
         <f>AVERAGE(AM57:AM59)</f>
-        <v>#DIV/0!</v>
+        <v>12.555177542600001</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -10636,17 +13767,17 @@
       <c r="A73">
         <v>1</v>
       </c>
-      <c r="B73" t="e">
+      <c r="B73">
         <f>$B$30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C73" t="e">
+        <v>0.5756640126</v>
+      </c>
+      <c r="C73">
         <f>$C$30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D73" t="e">
+        <v>0.30769366740000004</v>
+      </c>
+      <c r="D73">
         <f>$D$30</f>
-        <v>#DIV/0!</v>
+        <v>0.23081160679999999</v>
       </c>
       <c r="E73" s="3"/>
       <c r="J73" s="3"/>
@@ -10657,638 +13788,660 @@
       <c r="A74">
         <v>2</v>
       </c>
-      <c r="B74" t="e">
+      <c r="B74">
         <f>$G$30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C74" t="e">
+        <v>1.0867297808</v>
+      </c>
+      <c r="C74">
         <f>$H$30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D74" t="e">
+        <v>0.69244371859999998</v>
+      </c>
+      <c r="D74">
         <f>$I$30</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>0.55183784740000008</v>
+      </c>
+      <c r="O74" s="2"/>
     </row>
     <row r="75" spans="1:20">
       <c r="A75">
         <v>3</v>
       </c>
-      <c r="B75" t="e">
+      <c r="B75">
         <f>$L$30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C75" t="e">
+        <v>1.5793951434</v>
+      </c>
+      <c r="C75">
         <f>$M$30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D75" t="e">
+        <v>0.32549412040000003</v>
+      </c>
+      <c r="D75">
         <f>$N$30</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
-      <c r="A76">
-        <v>4</v>
-      </c>
-      <c r="B76" s="2" t="e">
-        <f>$Q$30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C76" t="e">
-        <f>$R$30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D76" t="e">
-        <f>$S$30</f>
-        <v>#DIV/0!</v>
+        <v>0.93108106700000004</v>
       </c>
     </row>
     <row r="77" spans="1:20">
       <c r="A77">
         <v>5</v>
       </c>
-      <c r="B77" t="e">
+      <c r="B77">
         <f>$V$30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C77" t="e">
+        <v>1.9841557475999998</v>
+      </c>
+      <c r="C77">
         <f>$W$30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D77" t="e">
+        <v>0.63990043720000001</v>
+      </c>
+      <c r="D77">
         <f>$X$30</f>
-        <v>#DIV/0!</v>
+        <v>1.0645283454000001</v>
       </c>
     </row>
     <row r="78" spans="1:20">
       <c r="A78">
         <v>10</v>
       </c>
-      <c r="B78" s="4" t="e">
+      <c r="B78" s="4">
         <f>$AA$30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C78" t="e">
+        <v>2.3899355962</v>
+      </c>
+      <c r="C78">
         <f>$AB$30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D78" t="e">
+        <v>1.1694640232</v>
+      </c>
+      <c r="D78">
         <f>$AC$30</f>
-        <v>#DIV/0!</v>
+        <v>1.4694690036</v>
       </c>
     </row>
     <row r="79" spans="1:20">
       <c r="A79">
         <v>15</v>
       </c>
-      <c r="B79" s="2" t="e">
+      <c r="B79" s="2">
         <f>$AF$30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C79" s="2" t="e">
+        <v>2.5441974674000001</v>
+      </c>
+      <c r="C79" s="2">
         <f>$AG$30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D79" s="2" t="e">
+        <v>1.4788916329999999</v>
+      </c>
+      <c r="D79" s="2">
         <f>$AH$30</f>
-        <v>#DIV/0!</v>
+        <v>1.5183983780000001</v>
       </c>
     </row>
     <row r="80" spans="1:20">
       <c r="A80">
+        <v>22</v>
+      </c>
+      <c r="B80">
+        <v>3.0188700514</v>
+      </c>
+      <c r="C80">
+        <v>1.9682889578</v>
+      </c>
+      <c r="D80">
+        <v>2.2437008002000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81">
         <v>30</v>
       </c>
-      <c r="B80" s="2" t="e">
+      <c r="B81" s="2">
         <f>$AK$30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C80" s="2" t="e">
+        <v>3.2755559065999997</v>
+      </c>
+      <c r="C81" s="2">
         <f>$AL$30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D80" s="2" t="e">
+        <v>2.2323284440000002</v>
+      </c>
+      <c r="D81" s="2">
         <f>$AM$30</f>
-        <v>#DIV/0!</v>
+        <v>2.0684172431999999</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:15">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
+    <row r="83" spans="1:15">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:15">
+      <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="1">
+    <row r="92" spans="1:15">
+      <c r="A92" s="1">
         <v>0</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B92" s="1">
         <v>0</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C92" s="1">
         <v>0</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D92" s="1">
         <v>0</v>
       </c>
+      <c r="O92" s="2"/>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92">
+    <row r="93" spans="1:15">
+      <c r="A93">
         <v>1</v>
       </c>
-      <c r="B92" t="e">
+      <c r="B93">
         <f>$B$40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C92" t="e">
+        <v>0.64988172899999996</v>
+      </c>
+      <c r="C93">
         <f>$C$40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D92" t="e">
+        <v>0.28742258659999997</v>
+      </c>
+      <c r="D93">
         <f>$D$40</f>
-        <v>#DIV/0!</v>
+        <v>0.22661201340000003</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93">
+    <row r="94" spans="1:15">
+      <c r="A94">
         <v>2</v>
       </c>
-      <c r="B93" t="e">
+      <c r="B94">
         <f>$G$40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C93" t="e">
+        <v>1.9784383952000002</v>
+      </c>
+      <c r="C94">
         <f>$H$40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D93" t="e">
+        <v>1.2800733310000001</v>
+      </c>
+      <c r="D94">
         <f>$I$40</f>
-        <v>#DIV/0!</v>
+        <v>1.0626209508000002</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
+    <row r="95" spans="1:15">
+      <c r="A95">
         <v>3</v>
       </c>
-      <c r="B94" t="e">
+      <c r="B95">
         <f>$L$40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C94" t="e">
+        <v>1.6797268287999998</v>
+      </c>
+      <c r="C95">
         <f>$M$40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D94" t="e">
+        <v>0.45494340500000002</v>
+      </c>
+      <c r="D95">
         <f>$N$40</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95">
-        <v>4</v>
-      </c>
-      <c r="B95" s="2" t="e">
-        <f>$Q$40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C95" t="e">
-        <f>$R$40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D95" t="e">
-        <f>$S$40</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
-        <v>5</v>
-      </c>
-      <c r="B96" t="e">
-        <f>$V$40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C96" t="e">
-        <f>$W$40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D96" t="e">
-        <f>$X$40</f>
-        <v>#DIV/0!</v>
+        <v>1.0085710481999999</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>10</v>
-      </c>
-      <c r="B97" s="4" t="e">
-        <f>$AA$40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C97" t="e">
-        <f>$AB$40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D97" t="e">
-        <f>$AC$40</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
+      </c>
+      <c r="B97">
+        <f>$V$40</f>
+        <v>3.0092521913999999</v>
+      </c>
+      <c r="C97">
+        <f>$W$40</f>
+        <v>1.1810248658</v>
+      </c>
+      <c r="D97">
+        <f>$X$40</f>
+        <v>1.7311172243999997</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>15</v>
-      </c>
-      <c r="B98" s="2" t="e">
-        <f>$AF$40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C98" s="2" t="e">
-        <f>$AG$40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="2" t="e">
-        <f>$AH$40</f>
-        <v>#DIV/0!</v>
+        <v>10</v>
+      </c>
+      <c r="B98" s="4">
+        <f>$AA$40</f>
+        <v>3.8525547789999997</v>
+      </c>
+      <c r="C98">
+        <f>$AB$40</f>
+        <v>2.117668455</v>
+      </c>
+      <c r="D98">
+        <f>$AC$40</f>
+        <v>2.4087304969999996</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
+        <v>15</v>
+      </c>
+      <c r="B99" s="2">
+        <f>$AF$40</f>
+        <v>4.3563031232</v>
+      </c>
+      <c r="C99" s="2">
+        <f>$AG$40</f>
+        <v>2.8533341586000001</v>
+      </c>
+      <c r="D99" s="2">
+        <f>$AH$40</f>
+        <v>2.7659609721999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>22</v>
+      </c>
+      <c r="B100">
+        <f ca="1">AVERAGE(B98:B103)</f>
+        <v>4.6081892870666668</v>
+      </c>
+      <c r="C100">
+        <f ca="1">AVERAGE(C98:C103)</f>
+        <v>2.8401202734666668</v>
+      </c>
+      <c r="D100">
+        <f ca="1">AVERAGE(D98:D103)</f>
+        <v>2.8083913914666661</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
         <v>30</v>
       </c>
-      <c r="B99" s="2" t="e">
+      <c r="B101" s="2">
         <f>$AK$40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C99" s="2" t="e">
+        <v>5.6157099590000001</v>
+      </c>
+      <c r="C101" s="2">
         <f>$AL$40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D99" s="2" t="e">
+        <v>3.5493582068</v>
+      </c>
+      <c r="D101" s="2">
         <f>$AM$40</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>11</v>
+        <v>3.2504827051999996</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>9</v>
+      <c r="A106" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="1">
+      <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="1">
-        <v>0</v>
-      </c>
-      <c r="C107" s="1">
-        <v>0</v>
-      </c>
-      <c r="D107" s="1">
-        <v>0</v>
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108">
-        <v>1</v>
-      </c>
-      <c r="B108" t="e">
-        <f>$B$50</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C108" t="e">
-        <f>$C$50</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D108" t="e">
-        <f>$D$50</f>
-        <v>#DIV/0!</v>
+      <c r="A108" s="1">
+        <v>0</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B109" t="e">
-        <f>$G$50</f>
+        <f>$B$50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C109" t="e">
-        <f>$H$50</f>
+        <f>$C$50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D109" t="e">
-        <f>$I$50</f>
+        <f>$D$50</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B110" t="e">
-        <f>$L$50</f>
+        <f>$G$50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C110" t="e">
-        <f>$M$50</f>
+        <f>$H$50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D110" t="e">
-        <f>$N$50</f>
+        <f>$I$50</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>4</v>
-      </c>
-      <c r="B111" s="2" t="e">
-        <f>$Q$50</f>
+        <v>3</v>
+      </c>
+      <c r="B111" t="e">
+        <f>$L$50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C111" t="e">
-        <f>$R$50</f>
+        <f>$M$50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D111" t="e">
-        <f>$S$50</f>
+        <f>$N$50</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
+        <v>4</v>
+      </c>
+      <c r="B112" s="2" t="e">
+        <f>$Q$50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C112" t="e">
+        <f>$R$50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D112" t="e">
+        <f>$S$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
         <v>5</v>
       </c>
-      <c r="B112" t="e">
+      <c r="B113" t="e">
         <f>$V$50</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C112" t="e">
+      <c r="C113" t="e">
         <f>$W$50</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D112" t="e">
+      <c r="D113" t="e">
         <f>$X$50</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113">
+    <row r="114" spans="1:5">
+      <c r="A114">
         <v>10</v>
       </c>
-      <c r="B113" s="4" t="e">
+      <c r="B114" s="4" t="e">
         <f>$AA$50</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C113" t="e">
+      <c r="C114" t="e">
         <f>$AB$50</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D113" t="e">
+      <c r="D114" t="e">
         <f>$AC$50</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114">
+    <row r="115" spans="1:5">
+      <c r="A115">
         <v>15</v>
       </c>
-      <c r="B114" s="2" t="e">
+      <c r="B115" s="2" t="e">
         <f>$AF$50</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C114" s="2" t="e">
+      <c r="C115" s="2" t="e">
         <f>$AG$50</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D114" s="2" t="e">
+      <c r="D115" s="2" t="e">
         <f>$AH$50</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115">
+    <row r="116" spans="1:5">
+      <c r="A116">
         <v>30</v>
       </c>
-      <c r="B115" s="2" t="e">
+      <c r="B116" s="2" t="e">
         <f>$AK$50</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C115" s="2" t="e">
+      <c r="C116" s="2" t="e">
         <f>$AL$50</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D115" s="2" t="e">
+      <c r="D116" s="2" t="e">
         <f>$AM$50</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E123" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="1">
+    <row r="124" spans="1:5">
+      <c r="A124">
         <v>0</v>
       </c>
-      <c r="B123" s="1" t="e">
-        <f>$B$112</f>
+      <c r="B124">
+        <v>1.6647329</v>
+      </c>
+      <c r="C124">
+        <v>1.3594831000000001</v>
+      </c>
+      <c r="D124">
+        <v>0.52093719999999999</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <f>$B$60</f>
+        <v>1.6951473575999998</v>
+      </c>
+      <c r="C125">
+        <f>$C$60</f>
+        <v>1.5725989158</v>
+      </c>
+      <c r="D125">
+        <f>$D$60</f>
+        <v>0.46140023680000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126">
+        <f>$G$60</f>
+        <v>1.8716574584000001</v>
+      </c>
+      <c r="C126">
+        <f>$H$60</f>
+        <v>1.2468747402</v>
+      </c>
+      <c r="D126">
+        <f>$I$60</f>
+        <v>0.85893367659999986</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128" s="2">
+        <f>$Q$60</f>
+        <v>3.0556984925999999</v>
+      </c>
+      <c r="C128">
+        <f>$R$60</f>
+        <v>1.7469681248</v>
+      </c>
+      <c r="D128">
+        <f>$S$60</f>
+        <v>2.4875797951999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>15</v>
+      </c>
+      <c r="B130" s="4">
+        <f>$AA$60</f>
+        <v>6.6014580926000006</v>
+      </c>
+      <c r="C130">
+        <f>$AB$60</f>
+        <v>3.9019044502</v>
+      </c>
+      <c r="D130">
+        <f>$AC$60</f>
+        <v>6.1122961656000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>30</v>
+      </c>
+      <c r="B131" s="2">
+        <f>$AF$60</f>
+        <v>7.8274331875999987</v>
+      </c>
+      <c r="C131" s="2">
+        <f>$AG$60</f>
+        <v>4.5103663756000003</v>
+      </c>
+      <c r="D131" s="2">
+        <f>$AH$60</f>
+        <v>6.2909006310000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>50</v>
+      </c>
+      <c r="B132" s="2">
+        <f>$AK$60</f>
+        <v>13.177717523800002</v>
+      </c>
+      <c r="C132" s="2">
+        <f>$AL$60</f>
+        <v>8.4508836281999997</v>
+      </c>
+      <c r="D132" s="2">
+        <f>$AM$60</f>
+        <v>12.555177542600001</v>
+      </c>
+      <c r="E132">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>0</v>
+      </c>
+      <c r="B139" s="1" t="e">
+        <f>$B$113</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C123" s="1" t="e">
-        <f>$C$112</f>
+      <c r="C139" s="1" t="e">
+        <f>$C$113</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D123" s="1" t="e">
-        <f>$D$112</f>
+      <c r="D139" s="1" t="e">
+        <f>$D$113</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124">
-        <v>1</v>
-      </c>
-      <c r="B124" t="e">
-        <f>$B$60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C124" t="e">
-        <f>$C$60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D124" t="e">
-        <f>$D$60</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125">
-        <v>2</v>
-      </c>
-      <c r="B125" t="e">
-        <f>$G$60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C125" t="e">
-        <f>$H$60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D125" t="e">
-        <f>$I$60</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126">
+    <row r="140" spans="1:5">
+      <c r="A140">
         <v>3</v>
       </c>
-      <c r="B126" t="e">
+      <c r="B140" t="e">
         <f>$L$60</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C126" t="e">
+      <c r="C140" t="e">
         <f>$M$60</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D126" t="e">
+      <c r="D140" t="e">
         <f>$N$60</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127">
-        <v>5</v>
-      </c>
-      <c r="B127" s="2" t="e">
-        <f>$Q$60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C127" t="e">
-        <f>$R$60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D127" t="e">
-        <f>$S$60</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128">
+    <row r="141" spans="1:5">
+      <c r="A141">
         <v>10</v>
       </c>
-      <c r="B128" t="e">
+      <c r="B141" t="e">
         <f>$V$60</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C128" t="e">
+      <c r="C141" t="e">
         <f>$W$60</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D128" t="e">
+      <c r="D141" t="e">
         <f>$X$60</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129">
-        <v>15</v>
-      </c>
-      <c r="B129" s="4" t="e">
-        <f>$AA$60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C129" t="e">
-        <f>$AB$60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D129" t="e">
-        <f>$AC$60</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130">
-        <v>30</v>
-      </c>
-      <c r="B130" s="2" t="e">
-        <f>$AF$60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C130" s="2" t="e">
-        <f>$AG$60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D130" s="2" t="e">
-        <f>$AH$60</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131">
-        <v>50</v>
-      </c>
-      <c r="B131" s="2" t="e">
-        <f>$AK$60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C131" s="2" t="e">
-        <f>$AL$60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D131" s="2" t="e">
-        <f>$AM$60</f>
         <v>#DIV/0!</v>
       </c>
     </row>
